--- a/Seq_differences/compact/horizontal results.xlsx
+++ b/Seq_differences/compact/horizontal results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\strav\git\bioinformatic\Seq_differences\compact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ADDDB5-96D2-4706-AF4E-43C3DA9B4242}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B85374-E0A5-4ACC-8F03-D4CBB9F63E39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,14 +18,21 @@
     <sheet name="MAFFT" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CLUSTAL!$J$1:$J$48</definedName>
     <definedName name="DatiEsterni_1" localSheetId="0" hidden="1">CLUSTAL!$A$1:$E$48</definedName>
     <definedName name="DatiEsterni_1" localSheetId="1" hidden="1">KALIGN!$A$1:$E$48</definedName>
     <definedName name="DatiEsterni_1" localSheetId="2" hidden="1">MAFFT!$A$1:$E$48</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -46,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="33">
   <si>
     <t>Italy|EPI_ISL_436729</t>
   </si>
@@ -114,9 +121,6 @@
     <t xml:space="preserve"> ATTAAAGGTTTATACCTTCCCAGGTAACAAACCAACCAACTTTCGATCTCTTGTAGATCTGTTCTCTAAACGAACTTTAAAATCTGTGTGGCTGTCACTCGGCTGCATGCTTAGTGCACTCACGCAGTATAATTAA</t>
   </si>
   <si>
-    <t xml:space="preserve"> NNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNN</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ACT</t>
   </si>
   <si>
@@ -124,9 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve"> CTGACACACGTTATGTGCTCATGGATGGCTCTATTATTCAATTTCCTAACACCTACCTTGAAGGTTCTGTTAGAGTGGTAACAACTTTTGATTCTGAGTACT</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNNN</t>
   </si>
   <si>
     <t xml:space="preserve"> N</t>
@@ -145,6 +146,12 @@
   </si>
   <si>
     <t>MUTATION</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NUM</t>
   </si>
 </sst>
 </file>
@@ -188,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -197,11 +204,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -230,22 +265,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <b/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -303,51 +326,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EEA2B82-20B2-43D1-82BE-11EC871BDFC6}" name="clustal_compact_horizontal_output" displayName="clustal_compact_horizontal_output" ref="A1:E48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7EEA2B82-20B2-43D1-82BE-11EC871BDFC6}" name="clustal_compact_horizontal_output" displayName="clustal_compact_horizontal_output" ref="A1:E48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:E48" xr:uid="{8819DE78-6642-4BE7-AF26-7D418A56696E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2AAA4089-10EF-4474-A159-5B3A05343372}" uniqueName="1" name="ID_SEQ" queryTableFieldId="1" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{4B97BBBC-F251-4E7E-AE69-443176C75D26}" uniqueName="2" name="POS" queryTableFieldId="2"/>
+    <tableColumn id="1" xr3:uid="{2AAA4089-10EF-4474-A159-5B3A05343372}" uniqueName="1" name="ID_SEQ" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4B97BBBC-F251-4E7E-AE69-443176C75D26}" uniqueName="2" name="POS" queryTableFieldId="2" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{0C56448D-3B14-4E15-8DD3-19AB9CAE9241}" uniqueName="3" name="LENGTH" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{AC233810-3C14-464D-AD71-FB102F8B2C19}" uniqueName="4" name="REFERENCE" queryTableFieldId="4" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{07A82063-E08A-456A-9E2F-A02089F7C154}" uniqueName="5" name="MUTATION" queryTableFieldId="5" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{AC233810-3C14-464D-AD71-FB102F8B2C19}" uniqueName="4" name="REFERENCE" queryTableFieldId="4" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{07A82063-E08A-456A-9E2F-A02089F7C154}" uniqueName="5" name="MUTATION" queryTableFieldId="5" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9010DF8A-7EDB-4E85-B075-CE4423827544}" name="kalign_compact_horizontal_output" displayName="kalign_compact_horizontal_output" ref="A1:E48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9010DF8A-7EDB-4E85-B075-CE4423827544}" name="kalign_compact_horizontal_output" displayName="kalign_compact_horizontal_output" ref="A1:E48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="A1:E48" xr:uid="{82676A34-60E3-40A1-BC02-D2ED5E97894A}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CC5A2934-E7EF-43F8-BE60-69A16D2DF89E}" uniqueName="1" name="ID_SEQ" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{CC5A2934-E7EF-43F8-BE60-69A16D2DF89E}" uniqueName="1" name="ID_SEQ" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{7B7A2904-F7A1-45F3-B7B5-F19B932EB87D}" uniqueName="2" name="POS" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{2EC8C5E1-03B3-455C-A024-9FABA4665E4E}" uniqueName="3" name="LENGTH" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{9E9DC40B-2DB0-4451-8ECB-C6C7FAE2F0A2}" uniqueName="4" name="REFERENCE" queryTableFieldId="4" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{AF329047-35FA-417A-A27B-702731AD14C8}" uniqueName="5" name="MUTATION" queryTableFieldId="5" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{9E9DC40B-2DB0-4451-8ECB-C6C7FAE2F0A2}" uniqueName="4" name="REFERENCE" queryTableFieldId="4" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{AF329047-35FA-417A-A27B-702731AD14C8}" uniqueName="5" name="MUTATION" queryTableFieldId="5" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C21F3040-C4C2-49B3-92A5-B6C1E958549B}" name="MAFFT_compact_horizontal_output" displayName="MAFFT_compact_horizontal_output" ref="A1:E48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C21F3040-C4C2-49B3-92A5-B6C1E958549B}" name="MAFFT_compact_horizontal_output" displayName="MAFFT_compact_horizontal_output" ref="A1:E48" tableType="queryTable" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:E48" xr:uid="{1C8589F1-EBB4-4287-B5FC-FC7FCFFAB34C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E48">
     <sortCondition ref="A1:A48"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7D7F3AD3-81EF-44AD-B540-EDFDEF853EC2}" uniqueName="1" name="ID_SEQ" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7D7F3AD3-81EF-44AD-B540-EDFDEF853EC2}" uniqueName="1" name="ID_SEQ" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{DC4B321A-0034-4BC4-899E-DF788B089AED}" uniqueName="2" name="POS" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{20E0B6CB-6BD6-47A7-9406-24C28D7CCEFA}" uniqueName="3" name="LENGTH" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{C65CC8A7-D221-4451-83A4-FA83D21E4363}" uniqueName="4" name="REFERENCE" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{594811A0-43CB-4FC9-8ED8-75825AF74B62}" uniqueName="5" name="MUTATION" queryTableFieldId="5" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{C65CC8A7-D221-4451-83A4-FA83D21E4363}" uniqueName="4" name="REFERENCE" queryTableFieldId="4" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{594811A0-43CB-4FC9-8ED8-75825AF74B62}" uniqueName="5" name="MUTATION" queryTableFieldId="5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -616,42 +639,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AF8788-3549-4785-8BBA-2D9EA0DB8E47}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.3984375" customWidth="1"/>
+    <col min="7" max="7" width="67.06640625" customWidth="1"/>
+    <col min="10" max="10" width="9.06640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2">
@@ -663,12 +692,16 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J2" s="5">
+        <f>COUNTIF($B$2:$B$48,B2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>30</v>
       </c>
       <c r="C3">
@@ -680,12 +713,16 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J3" s="5">
+        <f t="shared" ref="J3:J48" si="0">COUNTIF($B$2:$B$48,B3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>240</v>
       </c>
       <c r="C4">
@@ -697,12 +734,16 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>3036</v>
       </c>
       <c r="C5">
@@ -714,12 +755,16 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>3044</v>
       </c>
       <c r="C6">
@@ -731,12 +776,16 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>6448</v>
       </c>
       <c r="C7">
@@ -748,12 +797,16 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>6862</v>
       </c>
       <c r="C8">
@@ -765,12 +818,16 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>6865</v>
       </c>
       <c r="C9">
@@ -782,12 +839,16 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>6868</v>
       </c>
       <c r="C10">
@@ -799,12 +860,16 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>14407</v>
       </c>
       <c r="C11">
@@ -816,12 +881,16 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J11" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>19676</v>
       </c>
       <c r="C12">
@@ -833,12 +902,16 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>21626</v>
       </c>
       <c r="C13">
@@ -850,12 +923,16 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>23402</v>
       </c>
       <c r="C14">
@@ -867,12 +944,16 @@
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J14" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>25458</v>
       </c>
       <c r="C15">
@@ -884,12 +965,16 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>28880</v>
       </c>
       <c r="C16">
@@ -901,12 +986,16 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>29872</v>
       </c>
       <c r="C17">
@@ -918,12 +1007,16 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J17" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>240</v>
       </c>
       <c r="C18">
@@ -935,12 +1028,16 @@
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J18" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>834</v>
       </c>
       <c r="C19">
@@ -952,12 +1049,16 @@
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>3036</v>
       </c>
       <c r="C20">
@@ -969,12 +1070,16 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J20" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>14407</v>
       </c>
       <c r="C21">
@@ -986,12 +1091,16 @@
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>20267</v>
       </c>
       <c r="C22">
@@ -1003,12 +1112,16 @@
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J22" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>23402</v>
       </c>
       <c r="C23">
@@ -1020,12 +1133,16 @@
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J23" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>29870</v>
       </c>
       <c r="C24">
@@ -1035,14 +1152,18 @@
         <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>240</v>
       </c>
       <c r="C25">
@@ -1054,12 +1175,16 @@
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J25" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>3036</v>
       </c>
       <c r="C26">
@@ -1071,12 +1196,16 @@
       <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J26" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>5175</v>
       </c>
       <c r="C27">
@@ -1088,12 +1217,16 @@
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J27" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>6353</v>
       </c>
       <c r="C28">
@@ -1105,12 +1238,16 @@
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J28" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>14407</v>
       </c>
       <c r="C29">
@@ -1122,12 +1259,16 @@
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J29" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
         <v>20267</v>
       </c>
       <c r="C30">
@@ -1139,12 +1280,16 @@
       <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J30" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="4">
         <v>23402</v>
       </c>
       <c r="C31">
@@ -1156,12 +1301,16 @@
       <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J31" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="4">
         <v>28882</v>
       </c>
       <c r="C32">
@@ -1173,12 +1322,16 @@
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J32" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="4">
         <v>29687</v>
       </c>
       <c r="C33">
@@ -1190,12 +1343,16 @@
       <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J33" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="4">
         <v>29733</v>
       </c>
       <c r="C34">
@@ -1207,12 +1364,16 @@
       <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J34" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="4">
         <v>0</v>
       </c>
       <c r="C35">
@@ -1222,31 +1383,39 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4">
+        <v>145</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <v>145</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J36" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>240</v>
       </c>
       <c r="C37">
@@ -1258,12 +1427,16 @@
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J37" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>1058</v>
       </c>
       <c r="C38">
@@ -1275,12 +1448,16 @@
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J38" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>3036</v>
       </c>
       <c r="C39">
@@ -1292,161 +1469,202 @@
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J39" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>9113</v>
       </c>
       <c r="C40">
         <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" s="4">
+        <v>11915</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" s="4">
+        <v>14407</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="4">
+        <v>18997</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="4">
+        <v>23402</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="4">
+        <v>25562</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="4">
+        <v>27058</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="4">
+        <v>29539</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B48" s="4">
+        <v>29901</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41">
-        <v>11915</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42">
-        <v>14407</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>18997</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A44" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44">
-        <v>23402</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45">
-        <v>25562</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46">
-        <v>27058</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A47" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47">
-        <v>29539</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A48" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B48">
-        <v>29901</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>27</v>
+      <c r="J48" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="J1:J48" xr:uid="{A9FF513E-90DC-4ECB-B4E2-877CB11C1FF2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1457,37 +1675,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFF29EA-286B-4290-B611-9C36CC000A3A}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="80.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1503,8 +1722,15 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J2">
+        <f>COUNTIF($B$2:$B$48,B2)</f>
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,8 +1746,15 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <f t="shared" ref="J3:J48" si="0">COUNTIF($B$2:$B$48,B3)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1537,8 +1770,15 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1554,8 +1794,15 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,8 +1818,15 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1588,8 +1842,15 @@
       <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,8 +1866,15 @@
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1622,8 +1890,15 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,8 +1914,15 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,8 +1938,15 @@
       <c r="E11" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1673,8 +1962,15 @@
       <c r="E12" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1690,8 +1986,15 @@
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1707,8 +2010,15 @@
       <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,8 +2034,15 @@
       <c r="E15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,8 +2058,15 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,8 +2082,15 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1775,8 +2106,15 @@
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
@@ -1792,8 +2130,15 @@
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
@@ -1809,8 +2154,15 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1826,8 +2178,15 @@
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1843,8 +2202,15 @@
       <c r="E22" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1860,8 +2226,15 @@
       <c r="E23" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1877,8 +2250,15 @@
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1894,8 +2274,15 @@
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
@@ -1911,8 +2298,15 @@
       <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
@@ -1928,8 +2322,15 @@
       <c r="E27" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
@@ -1945,8 +2346,15 @@
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>19</v>
       </c>
@@ -1962,8 +2370,15 @@
       <c r="E29" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
@@ -1979,8 +2394,15 @@
       <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -1996,8 +2418,15 @@
       <c r="E31" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
@@ -2013,8 +2442,15 @@
       <c r="E32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -2030,8 +2466,15 @@
       <c r="E33" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -2047,8 +2490,15 @@
       <c r="E34" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,10 +2512,17 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
@@ -2076,13 +2533,20 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -2098,8 +2562,15 @@
       <c r="E37" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,8 +2586,15 @@
       <c r="E38" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
@@ -2132,8 +2610,15 @@
       <c r="E39" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
@@ -2144,13 +2629,20 @@
         <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,8 +2658,15 @@
       <c r="E41" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
@@ -2183,8 +2682,15 @@
       <c r="E42" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
@@ -2200,8 +2706,15 @@
       <c r="E43" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,8 +2730,15 @@
       <c r="E44" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +2754,15 @@
       <c r="E45" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
@@ -2251,8 +2778,15 @@
       <c r="E46" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
@@ -2268,8 +2802,15 @@
       <c r="E47" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -2283,7 +2824,14 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2298,32 +2846,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA924987-3EBD-46E4-B00E-DD33A1C1BABC}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection sqref="A1:E48"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.06640625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="80.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.796875" customWidth="1"/>
+    <col min="5" max="5" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -2901,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -2915,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -2983,10 +3532,10 @@
         <v>102</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -3122,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
